--- a/biology/Botanique/Acanthaceae/Acanthaceae.xlsx
+++ b/biology/Botanique/Acanthaceae/Acanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthaceae (Acanthacées) sont une famille de plantes dicotylédones ; elle comprend au moins 4 000 espèces réparties en près de 250 genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Acanthus, ancien nom de la plante, du grec ancien άκανθα  / akantha, épine.
 </t>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille était autrefois placée dans l'ordre des Scrophulariales, mais la classification phylogénétique l'a placée dans l'ordre des Lamiales.
 Selon l'Angiosperm Phylogeny Website, en ajoutant les différents genres de la famille des Nelsoniacées, cette famille compte en fait 3 500 espèces réparties en 229 genres. 
-La classification phylogénétique APG II (2003)[1] y rajoute le genre Avicennia qui formait auparavant à lui tout seul la famille des Avicenniaceae.
+La classification phylogénétique APG II (2003) y rajoute le genre Avicennia qui formait auparavant à lui tout seul la famille des Avicenniaceae.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées, des arbustes ou rarement des arbres. Ces plantes, parfois grimpantes ou épiphytes, sont répandues dans les régions tempérées à tropicales. On les rencontre principalement en Inde, Malaisie, Afrique, Brésil et Amérique centrale.
 </t>
@@ -608,7 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon "The Plant List"[2] 25 septembre 2012
+          <t>Selon "The Plant List"[2] 25 septembre 2012</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthopale C.B.Clarke, (1899)
 Acanthopsis Harv., 1842
 Acanthostelma Bidgood &amp; Brummitt
@@ -835,7 +859,43 @@
 Xanthostachya Bremek., 1944
 Xenacanthus Bremek., 1944
 Yeatesia Small, 1896
-Selon Angiosperm Phylogeny Website                        (6 juillet 2010)[3]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acanthaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (6 juillet 2010)[3]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthopale C.B.Clarke
 Acanthopsis Harv.
 Acanthostelma Bidgood &amp; Brummitt
@@ -1064,7 +1124,43 @@
 Xerothamnella C.T.White
 Yeatesia Small
 Zygoruellia Baillon
-Selon NCBI  (6 juillet 2010)[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acanthaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 juillet 2010)[4]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 sous-famille Acanthoideae
 tribu Acantheae
 Acanthopsis
@@ -1208,7 +1304,43 @@
 Thunbergia
 Chaetacanthus
 Duvernoia
-Selon DELTA Angio           (6 juillet 2010)[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acanthaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (6 juillet 2010)[5]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthopale
 Acanthopsis
 Acanthostelma
@@ -1449,7 +1581,43 @@
 Xerothamnella
 Yeatesia
 Zygoruellia
-Selon ITIS      (6 juillet 2010)[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acanthaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (6 juillet 2010)[6]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthus L.
 Andrographis Wallich ex Nees
 Anisacanthus Nees
